--- a/HotelReservationSchema/ProjectData.xlsx
+++ b/HotelReservationSchema/ProjectData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Executor\Desktop\public_html\dev10-software-guild-files\Assessments\HotelReservationSchema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Executor\Desktop\public_html\dev10-software-guild-files\Classwork\HotelReservationSchema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C87A830-4C2C-406D-89B2-8C3938D58247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A525DD-80A4-4198-8AD5-6853644BB9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{ED9DBDBA-D602-438B-8AAC-9627AFF08478}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>Mack Simmer</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>ADAAccessibility</t>
+  </si>
+  <si>
+    <t>08096</t>
+  </si>
+  <si>
+    <t>02864</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -500,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E882D878-0A0C-4023-8A1B-0F3B5A7C3FE4}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1014,8 +1023,8 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
-        <v>8096</v>
+      <c r="G6" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="H6" s="3">
         <v>2147300298</v>
@@ -1030,7 +1039,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>(5, 'Karie', 'Yang', '9378 W. Augusta Ave.', 'West Deptford' , 'NJ', '8096', '2147300298'),</v>
+        <v>(5, 'Karie', 'Yang', '9378 W. Augusta Ave.', 'West Deptford' , 'NJ', '08096', '2147300298'),</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
@@ -1166,8 +1175,8 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3">
-        <v>2864</v>
+      <c r="G10" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="H10" s="3">
         <v>4463966785</v>
@@ -1182,7 +1191,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="2"/>
-        <v>(9, 'Walter', 'Holaway', '7556 Arrowhead St.', 'Cumberland' , 'RI', '2864', '4463966785'),</v>
+        <v>(9, 'Walter', 'Holaway', '7556 Arrowhead St.', 'Cumberland' , 'RI', '02864', '4463966785'),</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
